--- a/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 12,33</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,49</t>
+          <t>0,0; 27,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,17</t>
+          <t>0,0; 15,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 8,02</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,71</t>
+          <t>0,0; 20,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,89</t>
+          <t>0,0; 26,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,46</t>
+          <t>0,0; 28,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,84</t>
+          <t>0,0; 30,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,73</t>
+          <t>0,0; 12,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,97</t>
+          <t>2,42; 21,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,37</t>
+          <t>1,5; 15,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,97</t>
+          <t>0,0; 18,66</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,49</t>
+          <t>5,72; 12,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,2</t>
+          <t>4,73; 10,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,78</t>
+          <t>3,47; 9,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,85</t>
+          <t>2,92; 8,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,67</t>
+          <t>5,59; 11,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,04</t>
+          <t>5,38; 11,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,42</t>
+          <t>4,74; 10,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,17</t>
+          <t>4,66; 11,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,49</t>
+          <t>6,38; 10,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,64</t>
+          <t>5,64; 9,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,89</t>
+          <t>4,56; 8,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,48</t>
+          <t>4,09; 7,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>4,83; 12,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,81</t>
+          <t>4,6; 12,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,32</t>
+          <t>1,59; 6,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>3,8; 11,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,0</t>
+          <t>3,6; 10,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,76</t>
+          <t>3,59; 10,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,02</t>
+          <t>1,75; 6,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,52</t>
+          <t>2,95; 9,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,71</t>
+          <t>5,14; 10,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 21,83</t>
+          <t>4,96; 9,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 15,49</t>
+          <t>2,15; 5,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,66</t>
+          <t>4,12; 8,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,46</t>
+          <t>2,61; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,02</t>
+          <t>2,47; 8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,55</t>
+          <t>3,1; 8,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,16</t>
+          <t>1,91; 7,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,13</t>
+          <t>4,96; 11,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,2</t>
+          <t>1,13; 5,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,72</t>
+          <t>4,85; 11,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,53</t>
+          <t>3,62; 10,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,11</t>
+          <t>4,41; 8,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,64</t>
+          <t>2,18; 5,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,96</t>
+          <t>4,57; 8,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,9</t>
+          <t>3,26; 7,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>0,0; 26,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,81</t>
+          <t>0,0; 28,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,32</t>
+          <t>0,0; 15,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,0</t>
+          <t>0,0; 16,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,76</t>
+          <t>0,0; 28,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,02</t>
+          <t>0,0; 28,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,71</t>
+          <t>0,0; 12,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 21,83</t>
+          <t>2,58; 19,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 15,49</t>
+          <t>1,47; 15,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,46</t>
+          <t>4,85; 13,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,72</t>
+          <t>5,21; 14,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,98</t>
+          <t>1,56; 8,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,02</t>
+          <t>1,51; 8,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 10,55</t>
+          <t>2,99; 10,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,18</t>
+          <t>1,85; 8,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,38</t>
+          <t>2,04; 9,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,58</t>
+          <t>1,51; 7,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,62</t>
+          <t>4,97; 10,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,74</t>
+          <t>4,2; 9,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,14</t>
+          <t>2,44; 6,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,22</t>
+          <t>2,14; 6,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 12,33</t>
+          <t>6,03; 12,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,49</t>
+          <t>4,52; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,17</t>
+          <t>3,45; 8,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 8,02</t>
+          <t>2,96; 8,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,71</t>
+          <t>5,22; 11,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,89</t>
+          <t>5,53; 11,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,46</t>
+          <t>4,73; 10,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,84</t>
+          <t>4,46; 10,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,73</t>
+          <t>6,47; 11,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,97</t>
+          <t>5,79; 9,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,37</t>
+          <t>4,61; 8,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,97</t>
+          <t>4,1; 8,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,46</t>
+          <t>4,94; 12,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,02</t>
+          <t>4,76; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,55</t>
+          <t>1,73; 6,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,16</t>
+          <t>3,86; 11,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,13</t>
+          <t>3,47; 9,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,2</t>
+          <t>3,72; 10,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,72</t>
+          <t>2,04; 7,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,53</t>
+          <t>2,95; 9,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,11</t>
+          <t>5,16; 10,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,64</t>
+          <t>5,03; 9,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,96</t>
+          <t>2,16; 5,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,9</t>
+          <t>4,04; 8,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,49</t>
+          <t>2,71; 7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,2</t>
+          <t>2,5; 8,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,78</t>
+          <t>3,1; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,85</t>
+          <t>1,85; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,67</t>
+          <t>4,85; 11,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,04</t>
+          <t>0,89; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,42</t>
+          <t>4,78; 11,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,17</t>
+          <t>3,64; 10,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,49</t>
+          <t>4,29; 8,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,64</t>
+          <t>2,05; 5,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,89</t>
+          <t>4,68; 9,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,48</t>
+          <t>3,24; 7,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,2</t>
+          <t>5,76; 9,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,66</t>
+          <t>5,5; 8,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,27</t>
+          <t>3,62; 6,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,41</t>
+          <t>3,63; 6,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,91</t>
+          <t>5,63; 8,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,99</t>
+          <t>4,22; 7,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,84</t>
+          <t>4,88; 8,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,71</t>
+          <t>4,61; 7,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,36</t>
+          <t>6,15; 8,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,39</t>
+          <t>5,24; 7,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,56</t>
+          <t>4,57; 6,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,67</t>
+          <t>4,3; 6,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,68</t>
+          <t>0,0; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,25</t>
+          <t>0,0; 27,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,95</t>
+          <t>0,0; 16,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,01</t>
+          <t>0,0; 21,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,94</t>
+          <t>0,0; 26,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,45</t>
+          <t>0,0; 30,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,52</t>
+          <t>0,0; 28,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,19</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 19,98</t>
+          <t>2,27; 19,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 15,77</t>
+          <t>1,47; 17,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,66</t>
+          <t>0,0; 18,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,4</t>
+          <t>4,64; 12,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,06</t>
+          <t>5,27; 13,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,34</t>
+          <t>1,57; 8,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,05</t>
+          <t>1,57; 8,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,21</t>
+          <t>3,24; 11,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 8,18</t>
+          <t>1,88; 8,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 9,38</t>
+          <t>2,0; 9,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,62</t>
+          <t>1,68; 7,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,64</t>
+          <t>4,85; 10,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,45</t>
+          <t>4,26; 9,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,93</t>
+          <t>2,45; 7,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,28</t>
+          <t>2,07; 6,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,35</t>
+          <t>5,71; 12,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,54</t>
+          <t>4,53; 10,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,69</t>
+          <t>3,53; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,13</t>
+          <t>2,99; 8,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,67</t>
+          <t>5,54; 12,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,99</t>
+          <t>5,8; 12,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,98</t>
+          <t>4,85; 10,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,79</t>
+          <t>4,47; 11,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,02</t>
+          <t>6,39; 10,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,81</t>
+          <t>5,61; 9,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,6</t>
+          <t>4,73; 8,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,22</t>
+          <t>4,14; 8,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,4</t>
+          <t>5,15; 12,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,59</t>
+          <t>4,78; 12,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,72</t>
+          <t>1,62; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,14</t>
+          <t>3,9; 11,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,94</t>
+          <t>3,29; 10,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,61</t>
+          <t>3,6; 10,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,21</t>
+          <t>1,77; 6,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,2</t>
+          <t>2,82; 9,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,08</t>
+          <t>4,94; 10,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,81</t>
+          <t>4,81; 9,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,59</t>
+          <t>2,09; 5,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,73</t>
+          <t>4,23; 9,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,81</t>
+          <t>2,74; 7,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,54</t>
+          <t>2,64; 8,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,05</t>
+          <t>3,08; 9,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,6</t>
+          <t>1,88; 7,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,27</t>
+          <t>4,93; 11,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,07</t>
+          <t>0,89; 4,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,04</t>
+          <t>4,69; 11,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,64; 10,53</t>
+          <t>3,55; 9,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,47</t>
+          <t>4,4; 8,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,56</t>
+          <t>2,18; 5,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,18</t>
+          <t>4,57; 9,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,45</t>
+          <t>3,34; 7,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,08</t>
+          <t>5,82; 8,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,78</t>
+          <t>5,52; 8,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,33</t>
+          <t>3,69; 6,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,46</t>
+          <t>3,48; 6,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,9</t>
+          <t>5,55; 8,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,27</t>
+          <t>4,32; 7,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,08</t>
+          <t>4,84; 7,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,92</t>
+          <t>4,49; 7,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,37</t>
+          <t>6,18; 8,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,4</t>
+          <t>5,12; 7,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,63</t>
+          <t>4,48; 6,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,54</t>
+          <t>4,43; 6,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,68</t>
+          <t>2,89; 9,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,12</t>
+          <t>2,6; 9,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,1</t>
+          <t>2,78; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,29; 9,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,12</t>
+          <t>4,45; 12,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,96</t>
+          <t>5,54; 13,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,25</t>
+          <t>1,56; 7,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,38</t>
+          <t>1,32; 6,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,58</t>
+          <t>4,41; 9,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 19,25</t>
+          <t>4,81; 9,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 17,69</t>
+          <t>2,87; 7,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,2</t>
+          <t>2,24; 6,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,93</t>
+          <t>5,59; 11,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 13,97</t>
+          <t>5,38; 11,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,4</t>
+          <t>4,74; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,01</t>
+          <t>4,85; 12,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 11,04</t>
+          <t>5,72; 12,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,74</t>
+          <t>4,73; 10,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,4</t>
+          <t>3,47; 9,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,69</t>
+          <t>2,97; 8,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,44</t>
+          <t>6,38; 10,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,94</t>
+          <t>5,64; 9,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,22</t>
+          <t>4,56; 8,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,14</t>
+          <t>4,15; 8,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 12,08</t>
+          <t>3,6; 10,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,48</t>
+          <t>3,59; 10,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,5</t>
+          <t>1,75; 6,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,17</t>
+          <t>2,19; 8,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 12,03</t>
+          <t>4,83; 12,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,04</t>
+          <t>4,6; 12,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,64</t>
+          <t>1,59; 6,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,29</t>
+          <t>3,97; 11,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,96</t>
+          <t>5,14; 10,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,81</t>
+          <t>4,96; 9,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,87</t>
+          <t>2,15; 5,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,39</t>
+          <t>3,86; 8,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,97</t>
+          <t>4,96; 11,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,04</t>
+          <t>1,13; 5,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,86</t>
+          <t>4,85; 11,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,3</t>
+          <t>3,6; 10,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,19</t>
+          <t>2,61; 7,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,98</t>
+          <t>2,47; 8,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,97</t>
+          <t>3,1; 8,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,2</t>
+          <t>1,92; 8,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,2</t>
+          <t>4,41; 8,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,73</t>
+          <t>2,18; 5,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,73</t>
+          <t>4,57; 8,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,01</t>
+          <t>3,23; 7,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,6</t>
+          <t>5,56; 8,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,58</t>
+          <t>4,12; 6,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,19</t>
+          <t>4,76; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,71</t>
+          <t>4,4; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 11,09</t>
+          <t>5,91; 9,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,95</t>
+          <t>5,35; 8,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,58</t>
+          <t>3,63; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,94</t>
+          <t>3,66; 6,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,4</t>
+          <t>6,16; 8,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,66</t>
+          <t>5,23; 7,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,04</t>
+          <t>4,55; 6,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,8</t>
+          <t>4,43; 6,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 8,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 8,69</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 6,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 6,4</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 8,85</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 7,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 7,67</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 8,49</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 7,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 6,65</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 6,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
